--- a/Info/sites/Gen6_Cores_Nodes_Cubes_information_v1.xlsx
+++ b/Info/sites/Gen6_Cores_Nodes_Cubes_information_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eff0ne/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FEleafcontroller\Info\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66D3B3B-B6EF-7C49-A364-37E35AEC5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862E2D3-2E90-43D6-B16E-A2A3CB673902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="820" windowWidth="28800" windowHeight="15960" xr2:uid="{DA7F38A8-3E62-4441-8AED-93E9A6665CD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{DA7F38A8-3E62-4441-8AED-93E9A6665CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen 6 Array " sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23625" uniqueCount="4485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23632" uniqueCount="4489">
   <si>
     <t>REGION</t>
   </si>
@@ -13512,6 +13512,18 @@
   </si>
   <si>
     <t>192 Cubes</t>
+  </si>
+  <si>
+    <t>Porterstown</t>
+  </si>
+  <si>
+    <t>10.194.211.3</t>
+  </si>
+  <si>
+    <t>Changed</t>
+  </si>
+  <si>
+    <t>Cowstead</t>
   </si>
 </sst>
 </file>
@@ -13620,7 +13632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -13701,11 +13713,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -13726,6 +13749,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14040,22 +14065,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12A840B-8613-4445-96DA-9D27BE66952F}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
         <v>4357</v>
       </c>
@@ -14081,7 +14106,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="16" t="s">
         <v>4361</v>
       </c>
@@ -14107,7 +14132,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="16" t="s">
         <v>4361</v>
       </c>
@@ -14127,7 +14152,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -14137,7 +14162,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="16" t="s">
         <v>4369</v>
       </c>
@@ -14163,7 +14188,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="16" t="s">
         <v>4372</v>
       </c>
@@ -14183,7 +14208,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -14193,7 +14218,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="16" t="s">
         <v>4375</v>
       </c>
@@ -14219,7 +14244,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="16" t="s">
         <v>4375</v>
       </c>
@@ -14239,7 +14264,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
         <v>4375</v>
       </c>
@@ -14259,7 +14284,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -14269,7 +14294,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" s="16" t="s">
         <v>4382</v>
       </c>
@@ -14289,7 +14314,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="16" t="s">
         <v>4382</v>
       </c>
@@ -14309,7 +14334,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -14319,7 +14344,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
@@ -14344,8 +14369,11 @@
       <c r="H15" s="19" t="s">
         <v>4458</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="16" t="s">
         <v>3</v>
       </c>
@@ -14649,7 +14677,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10">
       <c r="A33" s="16" t="s">
         <v>4415</v>
       </c>
@@ -14669,7 +14697,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10">
       <c r="A34" s="16" t="s">
         <v>4415</v>
       </c>
@@ -14689,7 +14717,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -14699,7 +14727,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36" s="16" t="s">
         <v>4420</v>
       </c>
@@ -14725,7 +14753,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37" s="16" t="s">
         <v>4420</v>
       </c>
@@ -14745,7 +14773,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -14755,7 +14783,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39" s="16" t="s">
         <v>4425</v>
       </c>
@@ -14773,7 +14801,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40" s="16" t="s">
         <v>4425</v>
       </c>
@@ -14791,7 +14819,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -14801,7 +14829,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42" s="16" t="s">
         <v>4428</v>
       </c>
@@ -14817,11 +14845,20 @@
       <c r="E42" s="17" t="s">
         <v>4365</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="F42" s="19">
+        <v>1</v>
+      </c>
+      <c r="G42" s="19">
+        <v>2</v>
+      </c>
+      <c r="H42" s="19">
+        <v>6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="16" t="s">
         <v>4428</v>
       </c>
@@ -14841,7 +14878,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -14851,7 +14888,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45" s="16" t="s">
         <v>4433</v>
       </c>
@@ -14877,7 +14914,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46" s="16" t="s">
         <v>4433</v>
       </c>
@@ -14897,7 +14934,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -14907,7 +14944,7 @@
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48" s="16" t="s">
         <v>4438</v>
       </c>
@@ -15059,6 +15096,25 @@
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="20" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>4362</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>4486</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>4488</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15074,13 +15130,13 @@
       <selection pane="bottomLeft" activeCell="G394" sqref="G394"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
@@ -15292,7 +15348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -15821,7 +15877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16">
+    <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -15844,7 +15900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16">
+    <row r="34" spans="1:7" ht="15.6">
       <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
@@ -15867,7 +15923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16">
+    <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -16442,7 +16498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16">
+    <row r="60" spans="1:7" ht="15.6">
       <c r="A60" s="7" t="s">
         <v>12</v>
       </c>
@@ -16787,7 +16843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16">
+    <row r="75" spans="1:7" ht="15.6">
       <c r="A75" s="7" t="s">
         <v>12</v>
       </c>
@@ -16810,7 +16866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16">
+    <row r="76" spans="1:7" ht="15.6">
       <c r="A76" s="7" t="s">
         <v>12</v>
       </c>
@@ -17247,7 +17303,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16">
+    <row r="95" spans="1:7" ht="15.6">
       <c r="A95" s="7" t="s">
         <v>12</v>
       </c>
@@ -17753,7 +17809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16">
+    <row r="117" spans="1:7" ht="15.6">
       <c r="A117" s="7" t="s">
         <v>12</v>
       </c>
@@ -17776,7 +17832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16">
+    <row r="118" spans="1:7" ht="15.6">
       <c r="A118" s="7" t="s">
         <v>12</v>
       </c>
@@ -17960,7 +18016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16">
+    <row r="126" spans="1:7" ht="15.6">
       <c r="A126" s="7" t="s">
         <v>12</v>
       </c>
@@ -18121,7 +18177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16">
+    <row r="133" spans="1:7" ht="15.6">
       <c r="A133" s="7" t="s">
         <v>12</v>
       </c>
@@ -18144,7 +18200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16">
+    <row r="134" spans="1:7" ht="15.6">
       <c r="A134" s="7" t="s">
         <v>12</v>
       </c>
@@ -18167,7 +18223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16">
+    <row r="135" spans="1:7" ht="15.6">
       <c r="A135" s="7" t="s">
         <v>12</v>
       </c>
@@ -19317,7 +19373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16">
+    <row r="185" spans="1:7" ht="15.6">
       <c r="A185" s="7" t="s">
         <v>12</v>
       </c>
@@ -19685,7 +19741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16">
+    <row r="201" spans="1:7" ht="15.6">
       <c r="A201" s="7" t="s">
         <v>12</v>
       </c>
@@ -20260,7 +20316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16">
+    <row r="226" spans="1:7" ht="15.6">
       <c r="A226" s="7" t="s">
         <v>12</v>
       </c>
@@ -20444,7 +20500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="16">
+    <row r="234" spans="1:7" ht="15.6">
       <c r="A234" s="7" t="s">
         <v>12</v>
       </c>
@@ -20467,7 +20523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="16">
+    <row r="235" spans="1:7" ht="15.6">
       <c r="A235" s="7" t="s">
         <v>12</v>
       </c>
@@ -20651,7 +20707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16">
+    <row r="243" spans="1:7" ht="15.6">
       <c r="A243" s="7" t="s">
         <v>12</v>
       </c>
@@ -20835,7 +20891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="16">
+    <row r="251" spans="1:7" ht="15.6">
       <c r="A251" s="7" t="s">
         <v>12</v>
       </c>
@@ -21042,7 +21098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="16">
+    <row r="260" spans="1:7" ht="15.6">
       <c r="A260" s="7" t="s">
         <v>12</v>
       </c>
@@ -21226,7 +21282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="16">
+    <row r="268" spans="1:7" ht="15.6">
       <c r="A268" s="7" t="s">
         <v>12</v>
       </c>
@@ -21410,7 +21466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="16">
+    <row r="276" spans="1:7" ht="15.6">
       <c r="A276" s="7" t="s">
         <v>12</v>
       </c>
@@ -21617,7 +21673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="16">
+    <row r="285" spans="1:7" ht="15.6">
       <c r="A285" s="7" t="s">
         <v>12</v>
       </c>
@@ -21801,7 +21857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16">
+    <row r="293" spans="1:7" ht="15.6">
       <c r="A293" s="7" t="s">
         <v>12</v>
       </c>
@@ -21985,7 +22041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16">
+    <row r="301" spans="1:7" ht="15.6">
       <c r="A301" s="7" t="s">
         <v>12</v>
       </c>
@@ -22192,7 +22248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="16">
+    <row r="310" spans="1:7" ht="15.6">
       <c r="A310" s="7" t="s">
         <v>12</v>
       </c>
@@ -22376,7 +22432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="16">
+    <row r="318" spans="1:7" ht="15.6">
       <c r="A318" s="7" t="s">
         <v>12</v>
       </c>
@@ -22560,7 +22616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16">
+    <row r="326" spans="1:7" ht="15.6">
       <c r="A326" s="7" t="s">
         <v>12</v>
       </c>
@@ -22675,7 +22731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16">
+    <row r="331" spans="1:7" ht="15.6">
       <c r="A331" s="7" t="s">
         <v>12</v>
       </c>
@@ -22698,7 +22754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="16">
+    <row r="332" spans="1:7" ht="15.6">
       <c r="A332" s="7" t="s">
         <v>12</v>
       </c>
@@ -22721,7 +22777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16">
+    <row r="333" spans="1:7" ht="15.6">
       <c r="A333" s="7" t="s">
         <v>12</v>
       </c>
@@ -22744,7 +22800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16">
+    <row r="334" spans="1:7" ht="15.6">
       <c r="A334" s="7" t="s">
         <v>12</v>
       </c>
@@ -22767,7 +22823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16">
+    <row r="335" spans="1:7" ht="15.6">
       <c r="A335" s="7" t="s">
         <v>12</v>
       </c>
@@ -22951,7 +23007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16">
+    <row r="343" spans="1:7" ht="15.6">
       <c r="A343" s="7" t="s">
         <v>12</v>
       </c>
@@ -23135,7 +23191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16">
+    <row r="351" spans="1:7" ht="15.6">
       <c r="A351" s="7" t="s">
         <v>12</v>
       </c>
@@ -23480,7 +23536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16">
+    <row r="366" spans="1:7" ht="15.6">
       <c r="A366" s="7" t="s">
         <v>12</v>
       </c>
@@ -23503,7 +23559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16">
+    <row r="367" spans="1:7" ht="15.6">
       <c r="A367" s="7" t="s">
         <v>12</v>
       </c>
@@ -24078,7 +24134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="16">
+    <row r="392" spans="1:7" ht="15.6">
       <c r="A392" s="7" t="s">
         <v>12</v>
       </c>
@@ -24101,7 +24157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="16">
+    <row r="393" spans="1:7" ht="15.6">
       <c r="A393" s="7" t="s">
         <v>12</v>
       </c>
@@ -24320,18 +24376,18 @@
   <dimension ref="A1:G1989"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1956" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70095,14 +70151,14 @@
       <selection pane="bottomLeft" activeCell="F241" sqref="F241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -75664,14 +75720,14 @@
       <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -76472,14 +76528,14 @@
       <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -76575,7 +76631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -76613,13 +76669,13 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
@@ -87012,14 +87068,14 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -88786,13 +88842,13 @@
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -89387,13 +89443,13 @@
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
@@ -90312,13 +90368,13 @@
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -91264,13 +91320,13 @@
       <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Info/sites/Gen6_Cores_Nodes_Cubes_information_v1.xlsx
+++ b/Info/sites/Gen6_Cores_Nodes_Cubes_information_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FEleafcontroller\Info\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862E2D3-2E90-43D6-B16E-A2A3CB673902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385022D2-F89A-496A-B96A-CC4B06992BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{DA7F38A8-3E62-4441-8AED-93E9A6665CD1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA7F38A8-3E62-4441-8AED-93E9A6665CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen 6 Array " sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23632" uniqueCount="4489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23633" uniqueCount="4489">
   <si>
     <t>REGION</t>
   </si>
@@ -14067,8 +14067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12A840B-8613-4445-96DA-9D27BE66952F}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -14797,9 +14797,15 @@
       <c r="E39" s="16" t="s">
         <v>4365</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="F39" s="19">
+        <v>1</v>
+      </c>
+      <c r="G39" s="19">
+        <v>6</v>
+      </c>
+      <c r="H39" s="19">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="16" t="s">
@@ -14964,7 +14970,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10">
       <c r="A49" s="16" t="s">
         <v>4438</v>
       </c>
@@ -14984,7 +14990,7 @@
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:10">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -14994,7 +15000,7 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10">
       <c r="A51" s="16" t="s">
         <v>4443</v>
       </c>
@@ -15014,7 +15020,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:10">
       <c r="A52" s="16" t="s">
         <v>4443</v>
       </c>
@@ -15034,7 +15040,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:10">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -15044,7 +15050,7 @@
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:10">
       <c r="A54" s="16" t="s">
         <v>4448</v>
       </c>
@@ -15070,7 +15076,7 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:10">
       <c r="A55" s="16" t="s">
         <v>4448</v>
       </c>
@@ -15090,14 +15096,14 @@
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:10">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:10">
       <c r="A57" s="20" t="s">
         <v>4485</v>
       </c>
@@ -15110,8 +15116,11 @@
       <c r="E57" s="21" t="s">
         <v>4365</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="J57" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>4488</v>
       </c>
@@ -70147,8 +70156,8 @@
   <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F241" sqref="F241"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>

--- a/Info/sites/Gen6_Cores_Nodes_Cubes_information_v1.xlsx
+++ b/Info/sites/Gen6_Cores_Nodes_Cubes_information_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FEleafcontroller\Info\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385022D2-F89A-496A-B96A-CC4B06992BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D62135-A2BC-4071-A908-A71C03F41DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA7F38A8-3E62-4441-8AED-93E9A6665CD1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{DA7F38A8-3E62-4441-8AED-93E9A6665CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen 6 Array " sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23633" uniqueCount="4489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23543" uniqueCount="4454">
   <si>
     <t>REGION</t>
   </si>
@@ -13157,15 +13157,6 @@
     <t>Gen 6</t>
   </si>
   <si>
-    <t>Array DAS Controller</t>
-  </si>
-  <si>
-    <t>enst98m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.159.4</t>
-  </si>
-  <si>
     <t>Koff Finland Array Controller</t>
   </si>
   <si>
@@ -13175,15 +13166,6 @@
     <t>10.194.161.3</t>
   </si>
   <si>
-    <t>Koff Finland Array DAS Controller</t>
-  </si>
-  <si>
-    <t>enst99m00c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.161.4</t>
-  </si>
-  <si>
     <t>LS power Diablo</t>
   </si>
   <si>
@@ -13193,18 +13175,6 @@
     <t>10.194.141.3</t>
   </si>
   <si>
-    <t>enst89m00c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.141.4</t>
-  </si>
-  <si>
-    <t>enst89m01c00n00s03</t>
-  </si>
-  <si>
-    <t>10.194.141.5</t>
-  </si>
-  <si>
     <t>Sunpower Luna</t>
   </si>
   <si>
@@ -13214,24 +13184,12 @@
     <t>10.194.153.3</t>
   </si>
   <si>
-    <t>enst95m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.153.4</t>
-  </si>
-  <si>
     <t>enst91m01c00n00s01</t>
   </si>
   <si>
     <t>10.194.145.3</t>
   </si>
   <si>
-    <t>enst91m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.145.4</t>
-  </si>
-  <si>
     <t>Litgrid Pilot</t>
   </si>
   <si>
@@ -13241,12 +13199,6 @@
     <t>10.194.167.3</t>
   </si>
   <si>
-    <t>enst102m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.167.4</t>
-  </si>
-  <si>
     <t>Enel Azur Sky</t>
   </si>
   <si>
@@ -13256,24 +13208,12 @@
     <t>10.194.155.3</t>
   </si>
   <si>
-    <t>enst96m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.155.4</t>
-  </si>
-  <si>
     <t>enst92m01c00n00s01</t>
   </si>
   <si>
     <t>10.194.147.3</t>
   </si>
   <si>
-    <t>enst92m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.147.4</t>
-  </si>
-  <si>
     <t>Marsh Landing</t>
   </si>
   <si>
@@ -13283,12 +13223,6 @@
     <t>10.194.179.3</t>
   </si>
   <si>
-    <t>enst108m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.179.4</t>
-  </si>
-  <si>
     <t>SDGE Kearny North</t>
   </si>
   <si>
@@ -13298,12 +13232,6 @@
     <t>10.194.175.3</t>
   </si>
   <si>
-    <t>enst106m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.175.4</t>
-  </si>
-  <si>
     <t>SDGE Kearny South</t>
   </si>
   <si>
@@ -13313,12 +13241,6 @@
     <t>10.194.177.3</t>
   </si>
   <si>
-    <t>enst107m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.177.4</t>
-  </si>
-  <si>
     <t>Capital Dynamics COSO</t>
   </si>
   <si>
@@ -13328,21 +13250,12 @@
     <t>10.194.149.3</t>
   </si>
   <si>
-    <t>enst93m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.149.4</t>
-  </si>
-  <si>
     <t>Brookwood</t>
   </si>
   <si>
     <t>10.194.191.3</t>
   </si>
   <si>
-    <t>10.194.191.4</t>
-  </si>
-  <si>
     <t>BASF Schwarzheide</t>
   </si>
   <si>
@@ -13352,12 +13265,6 @@
     <t>10.194.199.3</t>
   </si>
   <si>
-    <t>enst119m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.199.4</t>
-  </si>
-  <si>
     <t>Greencoat Killala</t>
   </si>
   <si>
@@ -13367,12 +13274,6 @@
     <t>10.194.207.3</t>
   </si>
   <si>
-    <t>enst123m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.207.4</t>
-  </si>
-  <si>
     <t>Google Belgium</t>
   </si>
   <si>
@@ -13382,12 +13283,6 @@
     <t>10.194.163.3</t>
   </si>
   <si>
-    <t>enst100m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.163.4</t>
-  </si>
-  <si>
     <t>ESB Inchichore</t>
   </si>
   <si>
@@ -13397,12 +13292,6 @@
     <t>10.194.213.3</t>
   </si>
   <si>
-    <t>enst126m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.213.4</t>
-  </si>
-  <si>
     <t>ESB Aghada</t>
   </si>
   <si>
@@ -13412,12 +13301,6 @@
     <t>10.194.205.3</t>
   </si>
   <si>
-    <t>enst122m01c00n00s02</t>
-  </si>
-  <si>
-    <t>10.194.205.4</t>
-  </si>
-  <si>
     <t># Cores</t>
   </si>
   <si>
@@ -13524,6 +13407,18 @@
   </si>
   <si>
     <t>Cowstead</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>15 Cores</t>
+  </si>
+  <si>
+    <t>1 Node per Core</t>
+  </si>
+  <si>
+    <t>5 Cubes per Node</t>
   </si>
 </sst>
 </file>
@@ -13632,7 +13527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -13707,20 +13602,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -13728,7 +13612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -13744,13 +13628,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14065,10 +13948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12A840B-8613-4445-96DA-9D27BE66952F}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -14078,1055 +13961,713 @@
     <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>4357</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>4358</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>4359</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4360</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
+        <v>4414</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4415</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>4363</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>4364</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4434</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>4418</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>4368</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>4436</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>4418</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>4370</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>4440</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>4441</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>4373</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>4375</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>4376</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>4417</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>4418</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>4419</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>4378</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>4420</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>4421</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>4443</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>4444</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>4383</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>4384</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>4437</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>4438</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="17" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>4426</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>4432</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="17" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>4390</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="17" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="17" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>4396</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>4423</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>4424</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="17" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>4398</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6</v>
+      </c>
+      <c r="H26" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="17" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
+        <v>2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="17" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>4403</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>4404</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>4429</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>4430</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="17" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>4406</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="17" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>4410</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="17" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>4412</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>4426</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>4427</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="19" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="19" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>4365</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="J38" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="15" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15" t="s">
+        <v>4451</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>4452</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>4453</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>4454</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="16" t="s">
-        <v>4361</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>4363</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>4364</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>4473</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>4457</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>4474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="16" t="s">
-        <v>4361</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>4367</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>4368</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="16" t="s">
-        <v>4369</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>4370</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>4371</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>4475</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>4457</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>4474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16" t="s">
-        <v>4372</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>4373</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>4374</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="16" t="s">
-        <v>4375</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>4376</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>4377</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>4479</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>4480</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="16" t="s">
-        <v>4375</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>4378</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>4379</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="16" t="s">
-        <v>4375</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>4380</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>4381</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="16" t="s">
-        <v>4382</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>4383</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>4384</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="16" t="s">
-        <v>4382</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>4385</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>4386</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>4387</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>4388</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>4456</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>4457</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>4458</v>
-      </c>
-      <c r="J15" t="s">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>4389</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>4390</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16" t="s">
-        <v>4391</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>4392</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>4393</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>4459</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>4460</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>4461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="16" t="s">
-        <v>4391</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>4394</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>4395</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="16" t="s">
-        <v>4396</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>4397</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>4398</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>4482</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>4483</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>4484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="16" t="s">
-        <v>4396</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>4399</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>4400</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>4401</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>4402</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>4476</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>4477</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>4478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>4403</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>4404</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="16" t="s">
-        <v>4405</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>4406</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>4407</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>4465</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>4471</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>4472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="16" t="s">
-        <v>4405</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>4408</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>4409</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="16" t="s">
-        <v>4410</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>4411</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>4412</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="16" t="s">
-        <v>4410</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>4413</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>4414</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="16" t="s">
-        <v>4415</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>4416</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>4417</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="16" t="s">
-        <v>4415</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>4418</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>4419</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="16" t="s">
-        <v>4420</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>4421</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>4422</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>4462</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>4463</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>4464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="16" t="s">
-        <v>4420</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>4423</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>4424</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="16" t="s">
-        <v>4425</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16" t="s">
-        <v>4426</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F39" s="19">
-        <v>1</v>
-      </c>
-      <c r="G39" s="19">
-        <v>6</v>
-      </c>
-      <c r="H39" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="16" t="s">
-        <v>4425</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16" t="s">
-        <v>4427</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="16" t="s">
-        <v>4428</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>4429</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>4430</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F42" s="19">
-        <v>1</v>
-      </c>
-      <c r="G42" s="19">
-        <v>2</v>
-      </c>
-      <c r="H42" s="19">
-        <v>6</v>
-      </c>
-      <c r="J42" t="s">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="16" t="s">
-        <v>4428</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>4431</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>4432</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="16" t="s">
-        <v>4433</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>4434</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>4435</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>4468</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>4469</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>4470</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="16" t="s">
-        <v>4433</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>4436</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>4437</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="16" t="s">
-        <v>4438</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>4439</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>4440</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="16" t="s">
-        <v>4438</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>4441</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>4442</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="16" t="s">
-        <v>4443</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>4444</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>4445</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="16" t="s">
-        <v>4443</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>4446</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>4447</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="16" t="s">
-        <v>4448</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>4449</v>
-      </c>
-      <c r="D54" s="16" t="s">
+      <c r="J40" t="s">
         <v>4450</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>4465</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>4466</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>4467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="16" t="s">
-        <v>4448</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>4366</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>4451</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>4452</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>4365</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="20" t="s">
-        <v>4485</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>4362</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>4486</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>4365</v>
-      </c>
-      <c r="J57" t="s">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>4488</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
